--- a/oev_in_club.xlsx
+++ b/oev_in_club.xlsx
@@ -12215,13 +12215,13 @@
         <v>784</v>
       </c>
       <c r="I271" s="2">
-        <v>45435</v>
+        <v>45811</v>
       </c>
       <c r="J271" s="2">
         <v>42541</v>
       </c>
       <c r="K271" s="2">
-        <v>45470</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="272" spans="1:11">
